--- a/src/main/resources/questions.xlsx
+++ b/src/main/resources/questions.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -36,30 +36,12 @@
     <t>type</t>
   </si>
   <si>
-    <t>is 1+1 eqauls to 2</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>math</t>
   </si>
   <si>
-    <t>is 1+1 eqauls to 3</t>
-  </si>
-  <si>
-    <t>is 1+1 eqauls to 4</t>
-  </si>
-  <si>
-    <t>is 1+1 eqauls to 5</t>
-  </si>
-  <si>
-    <t>is 1+1 eqauls to 6</t>
-  </si>
-  <si>
-    <t>is 1+1 eqauls to 7</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -85,18 +67,44 @@
   </si>
   <si>
     <t>type_name</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;is 1+1 eqauls to 2&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;html&gt;is 1+1 eqauls to 3&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;is 1+1 eqauls to 4&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;is 1+1 eqauls to 5&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;is 1+1 eqauls to 6&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;is 1+1 eqauls to 7&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;then what you think&lt;br&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -131,6 +139,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -179,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +223,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,6 +275,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,16 +467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="114.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -459,19 +504,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -479,10 +524,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -491,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,10 +544,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -511,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -519,10 +564,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -531,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,10 +584,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -551,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -571,32 +616,34 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -605,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -616,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -630,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -644,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -658,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -672,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -686,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -700,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -714,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -728,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -742,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -756,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -770,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -784,7 +831,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -798,7 +845,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -812,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -826,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -840,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -854,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -868,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -882,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -896,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -910,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -924,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -938,47 +985,49 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>